--- a/heter&linear/3forms.xlsx
+++ b/heter&linear/3forms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanza/Documents/GitHub/ETF5550/heter&amp;linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="26680" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="26680" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>folder</t>
   </si>
@@ -50,9 +50,6 @@
     <t>wt con</t>
   </si>
   <si>
-    <t>pos_100_300_0</t>
-  </si>
-  <si>
     <t>form</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>neg_300_500_0.05_0.5</t>
   </si>
   <si>
-    <t>neg_300_500_0</t>
-  </si>
-  <si>
     <t>pos_100_300_0.5_5</t>
   </si>
   <si>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>300_500_0</t>
+  </si>
+  <si>
+    <t>dl wrong</t>
   </si>
 </sst>
 </file>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K68"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,10 +471,10 @@
     <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -509,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
@@ -538,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -567,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -596,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -625,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -654,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -683,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -712,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -741,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -770,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -799,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>9</v>
@@ -828,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5">
         <v>2</v>
@@ -857,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
@@ -886,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -907,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -915,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5">
         <v>6</v>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -944,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -965,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -973,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>3</v>
@@ -1023,7 +1020,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5">
         <v>3</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
         <v>10</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>3</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6">
         <v>5</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>3</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -1200,7 +1200,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6">
         <v>5</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>3</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>3</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6">
         <v>5</v>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>3</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -1316,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>3</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6">
         <v>10</v>
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
@@ -1569,166 +1572,6 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="2">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="2">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="2">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="2">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="2">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="2">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="2">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="2">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="2">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="2">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="2">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="2">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
